--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1002726.631894123</v>
+        <v>1002116.871837069</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17657175.71523437</v>
+        <v>17657175.71523436</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>33.76104808841092</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>31.5506869772999</v>
-      </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>322.96392688766</v>
       </c>
       <c r="F2" t="n">
-        <v>238.7142162802663</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -819,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>48.05036203516654</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>72.57586439428599</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>350.8700747665492</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -961,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>392.0391472008533</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>26.8932210707315</v>
       </c>
       <c r="X7" t="n">
-        <v>179.8847005907114</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>317.8227870144768</v>
+        <v>275.6040298918321</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>233.2748649396107</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>58.21293085521276</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H11" t="n">
-        <v>284.8176194334632</v>
+        <v>284.8176194334636</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T11" t="n">
-        <v>217.259065536848</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U11" t="n">
         <v>256.6189776240556</v>
@@ -1466,7 +1466,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H12" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1539,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>44.89320313722316</v>
       </c>
       <c r="G13" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I13" t="n">
         <v>85.90132644576698</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T13" t="n">
         <v>243.1546752508501</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>262.2773944052174</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T14" t="n">
-        <v>217.259065536848</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U14" t="n">
         <v>256.6189776240556</v>
@@ -1703,7 +1703,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H15" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T16" t="n">
-        <v>165.6728984014621</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U16" t="n">
-        <v>275.645275292109</v>
+        <v>41.59938884544069</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2590655368476</v>
+        <v>217.259065536848</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6189776240564</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1940,7 +1940,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H18" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>138.3219379470694</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I19" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S19" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T19" t="n">
-        <v>243.1546752508501</v>
+        <v>172.9819011611386</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2590655368476</v>
+        <v>217.2590655368471</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2177,7 +2177,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H21" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>69.41747395708991</v>
       </c>
       <c r="E22" t="n">
-        <v>18.949305220942</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2590655368476</v>
+        <v>217.259065536848</v>
       </c>
       <c r="U23" t="n">
         <v>256.6189776240556</v>
@@ -2380,7 +2380,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2414,7 +2414,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H24" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S25" t="n">
-        <v>78.87258048141338</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T25" t="n">
-        <v>243.1546752508501</v>
+        <v>61.157157012313</v>
       </c>
       <c r="U25" t="n">
         <v>275.645275292109</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T26" t="n">
         <v>217.2590655368476</v>
@@ -2651,7 +2651,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H27" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>119.4140835023347</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>161.0028889710941</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I28" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>156.56410959728</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T29" t="n">
         <v>217.2590655368476</v>
@@ -2888,7 +2888,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H30" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>80.13824458445872</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H31" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.90132644576698</v>
+        <v>78.87258048141305</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.1546752508501</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T32" t="n">
         <v>217.2590655368476</v>
@@ -3125,7 +3125,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H33" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>86.18158324108965</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>78.87258048141338</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T34" t="n">
         <v>243.1546752508501</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T35" t="n">
         <v>217.2590655368476</v>
@@ -3362,7 +3362,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H36" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>157.1616781298165</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>85.90132644576698</v>
@@ -3483,7 +3483,7 @@
         <v>275.645275292109</v>
       </c>
       <c r="V37" t="n">
-        <v>154.0391726876359</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T38" t="n">
         <v>217.2590655368476</v>
@@ -3599,7 +3599,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H39" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>19.21198347591848</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I40" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>156.56410959728</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>173.3773625662243</v>
       </c>
     </row>
     <row r="41">
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T41" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3836,7 +3836,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H42" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>111.7589802291223</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3915,7 +3915,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>78.87258048141338</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.1546752508501</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T44" t="n">
-        <v>217.259065536848</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U44" t="n">
         <v>256.6189776240556</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4073,7 +4073,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H45" t="n">
-        <v>40.6011835951553</v>
+        <v>40.60118359515529</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>19.24077225224046</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.1546752508501</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>146.8416453271514</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>846.680625966315</v>
       </c>
       <c r="C2" t="n">
-        <v>738.4874819278245</v>
+        <v>812.5785571901424</v>
       </c>
       <c r="D2" t="n">
-        <v>706.6181011426731</v>
+        <v>383.9968829274108</v>
       </c>
       <c r="E2" t="n">
-        <v>676.8837603413724</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.574042295003</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.32832263506</v>
+        <v>868.9397924108188</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.9019468393491</v>
+        <v>718.5617128800624</v>
       </c>
       <c r="C4" t="n">
-        <v>464.9019468393491</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>656.7205655583361</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X4" t="n">
-        <v>656.7205655583361</v>
+        <v>910.3803315990494</v>
       </c>
       <c r="Y4" t="n">
-        <v>656.7205655583361</v>
+        <v>910.3803315990494</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.0636759001416</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C5" t="n">
-        <v>449.9616071239689</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D5" t="n">
-        <v>418.0922263388175</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E5" t="n">
-        <v>388.3578855375167</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4567,22 +4567,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O5" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>571.7347895458456</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.3228423446453</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>796.3926008656205</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C7" t="n">
-        <v>623.8308893488454</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9528965503681</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E7" t="n">
-        <v>288.1948928011053</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4728,19 +4728,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>960.6291516561047</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1397.332608038895</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1397.332608038895</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>1397.332608038895</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="X7" t="n">
-        <v>1215.630890270499</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="Y7" t="n">
-        <v>988.2112195846075</v>
+        <v>858.7506050139928</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>400.4118020839785</v>
       </c>
       <c r="C8" t="n">
-        <v>812.5785571901426</v>
+        <v>366.3097333078059</v>
       </c>
       <c r="D8" t="n">
-        <v>491.5454389937014</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>830.9570922288289</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>826.7113725688863</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M9" t="n">
         <v>739.9048540962709</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O9" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.0433221421854</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C10" t="n">
-        <v>288.4816106254103</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V10" t="n">
-        <v>983.6892855326716</v>
+        <v>1461.55225337374</v>
       </c>
       <c r="W10" t="n">
-        <v>711.6628811189632</v>
+        <v>1461.55225337374</v>
       </c>
       <c r="X10" t="n">
-        <v>652.8619408611726</v>
+        <v>1216.160498707152</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.8619408611726</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C11" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E11" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F11" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G11" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776308</v>
       </c>
       <c r="H11" t="n">
         <v>102.1422344933241</v>
@@ -5044,16 +5044,16 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K11" t="n">
-        <v>1143.679603840573</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L11" t="n">
-        <v>1165.360404977446</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M11" t="n">
-        <v>2346.532308895916</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N11" t="n">
-        <v>3496.777713692914</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O11" t="n">
         <v>3519.925986636534</v>
@@ -5086,7 +5086,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y11" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="12">
@@ -5099,49 +5099,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C12" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D12" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E12" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F12" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G12" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H12" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I12" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J12" t="n">
-        <v>111.6181084023166</v>
+        <v>174.1987030937854</v>
       </c>
       <c r="K12" t="n">
-        <v>123.4881791623238</v>
+        <v>186.0687738537927</v>
       </c>
       <c r="L12" t="n">
-        <v>139.4489541568687</v>
+        <v>202.0295488483376</v>
       </c>
       <c r="M12" t="n">
-        <v>158.0744257543813</v>
+        <v>220.6550204458502</v>
       </c>
       <c r="N12" t="n">
-        <v>177.1928581632595</v>
+        <v>239.7734528547285</v>
       </c>
       <c r="O12" t="n">
-        <v>915.1748001463208</v>
+        <v>257.2630834199053</v>
       </c>
       <c r="P12" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R12" t="n">
         <v>1762.882278270333</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1039.344409528127</v>
+        <v>1047.327151238491</v>
       </c>
       <c r="C13" t="n">
-        <v>866.7826980113522</v>
+        <v>874.7654397217158</v>
       </c>
       <c r="D13" t="n">
-        <v>700.9047052128749</v>
+        <v>708.8874469232385</v>
       </c>
       <c r="E13" t="n">
-        <v>531.1467014636121</v>
+        <v>539.1294431739757</v>
       </c>
       <c r="F13" t="n">
-        <v>354.4396474253683</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G13" t="n">
-        <v>188.91125110521</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H13" t="n">
         <v>188.91125110521</v>
@@ -5205,10 +5205,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L13" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M13" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N13" t="n">
         <v>1823.203308416962</v>
@@ -5223,28 +5223,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R13" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S13" t="n">
-        <v>2779.896976828331</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T13" t="n">
-        <v>2534.286193746665</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U13" t="n">
-        <v>2255.856622744534</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V13" t="n">
-        <v>1968.901114614965</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W13" t="n">
-        <v>1703.974453599594</v>
+        <v>1520.13857659097</v>
       </c>
       <c r="X13" t="n">
-        <v>1458.582698933006</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y13" t="n">
-        <v>1231.163028247114</v>
+        <v>1047.327151238491</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J14" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K14" t="n">
-        <v>632.402696562455</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L14" t="n">
-        <v>1729.143463952188</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M14" t="n">
-        <v>2910.315367870658</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N14" t="n">
-        <v>4060.560772667655</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O14" t="n">
-        <v>5063.888712181582</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P14" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q14" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R14" t="n">
         <v>5107.111724666206</v>
@@ -5323,7 +5323,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y14" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="15">
@@ -5336,19 +5336,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C15" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D15" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E15" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F15" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G15" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H15" t="n">
         <v>102.1422344933241</v>
@@ -5357,22 +5357,22 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J15" t="n">
-        <v>313.1883495026064</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L15" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M15" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N15" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O15" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551062</v>
       </c>
       <c r="P15" t="n">
         <v>1091.023220340725</v>
@@ -5442,10 +5442,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L16" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M16" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N16" t="n">
         <v>1823.203308416962</v>
@@ -5463,10 +5463,10 @@
         <v>2761.306408467823</v>
       </c>
       <c r="S16" t="n">
-        <v>2761.306408467823</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T16" t="n">
-        <v>2593.960046446144</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U16" t="n">
         <v>2315.530475444014</v>
@@ -5494,7 +5494,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C17" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D17" t="n">
         <v>1652.736628213913</v>
@@ -5515,28 +5515,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J17" t="n">
-        <v>118.690981320266</v>
+        <v>228.0115822993457</v>
       </c>
       <c r="K17" t="n">
-        <v>970.5174972070564</v>
+        <v>245.4878062279583</v>
       </c>
       <c r="L17" t="n">
-        <v>2067.258264596789</v>
+        <v>1342.228573617691</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.382333304708</v>
+        <v>1366.35264232561</v>
       </c>
       <c r="N17" t="n">
-        <v>3241.627738101706</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O17" t="n">
-        <v>4244.955677615632</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P17" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q17" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R17" t="n">
         <v>5107.111724666206</v>
@@ -5548,16 +5548,16 @@
         <v>4807.200536626277</v>
       </c>
       <c r="U17" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V17" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W17" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X17" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y17" t="n">
         <v>2953.088456340953</v>
@@ -5573,19 +5573,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C18" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D18" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E18" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F18" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G18" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H18" t="n">
         <v>102.1422344933241</v>
@@ -5594,25 +5594,25 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J18" t="n">
-        <v>137.6817815627741</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K18" t="n">
-        <v>149.5518523227814</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L18" t="n">
-        <v>165.5126273173263</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M18" t="n">
-        <v>347.2898539968173</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N18" t="n">
-        <v>1600.235557966002</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O18" t="n">
-        <v>1617.725188531179</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P18" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q18" t="n">
         <v>1641.145501977371</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1152.528671882142</v>
+        <v>926.3901225091115</v>
       </c>
       <c r="C19" t="n">
-        <v>979.9669603653673</v>
+        <v>753.8284109923364</v>
       </c>
       <c r="D19" t="n">
-        <v>840.2478311259033</v>
+        <v>587.9504181938592</v>
       </c>
       <c r="E19" t="n">
-        <v>670.4898273766405</v>
+        <v>418.1924144445964</v>
       </c>
       <c r="F19" t="n">
-        <v>493.7827733383967</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="G19" t="n">
-        <v>328.2543770182384</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H19" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I19" t="n">
         <v>102.1422344933241</v>
@@ -5679,10 +5679,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L19" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M19" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N19" t="n">
         <v>1823.203308416962</v>
@@ -5697,28 +5697,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R19" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S19" t="n">
-        <v>2621.751411578553</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T19" t="n">
-        <v>2376.140628496887</v>
+        <v>2428.431650125986</v>
       </c>
       <c r="U19" t="n">
-        <v>2376.140628496887</v>
+        <v>2150.002079123856</v>
       </c>
       <c r="V19" t="n">
-        <v>2089.185120367317</v>
+        <v>1863.046570994286</v>
       </c>
       <c r="W19" t="n">
-        <v>1817.158715953609</v>
+        <v>1591.020166580578</v>
       </c>
       <c r="X19" t="n">
-        <v>1571.766961287021</v>
+        <v>1345.62841191399</v>
       </c>
       <c r="Y19" t="n">
-        <v>1344.34729060113</v>
+        <v>1118.208741228099</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C20" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E20" t="n">
         <v>1218.961883372208</v>
@@ -5752,28 +5752,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J20" t="n">
-        <v>214.2570612873764</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K20" t="n">
-        <v>1066.083577174167</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L20" t="n">
-        <v>2162.824344563899</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M20" t="n">
-        <v>3343.996248482369</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N20" t="n">
-        <v>4494.241653279367</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O20" t="n">
-        <v>4517.389926222987</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P20" t="n">
-        <v>4537.146441626144</v>
+        <v>4402.545771868657</v>
       </c>
       <c r="Q20" t="n">
-        <v>5098.481547872238</v>
+        <v>4963.880878114751</v>
       </c>
       <c r="R20" t="n">
         <v>5107.111724666206</v>
@@ -5788,16 +5788,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V20" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W20" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X20" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y20" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="21">
@@ -5810,19 +5810,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C21" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D21" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E21" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F21" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G21" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H21" t="n">
         <v>102.1422344933241</v>
@@ -5831,28 +5831,28 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J21" t="n">
-        <v>462.2401065289864</v>
+        <v>137.6817815627741</v>
       </c>
       <c r="K21" t="n">
-        <v>1154.843697359371</v>
+        <v>149.5518523227814</v>
       </c>
       <c r="L21" t="n">
-        <v>1170.804472353916</v>
+        <v>165.5126273173263</v>
       </c>
       <c r="M21" t="n">
-        <v>1698.289903651464</v>
+        <v>184.1380989148389</v>
       </c>
       <c r="N21" t="n">
-        <v>1717.408336060342</v>
+        <v>203.2565313237172</v>
       </c>
       <c r="O21" t="n">
-        <v>1734.897966625519</v>
+        <v>257.2630834199053</v>
       </c>
       <c r="P21" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q21" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R21" t="n">
         <v>1762.882278270333</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>855.5085325195037</v>
+        <v>1082.928203205395</v>
       </c>
       <c r="C22" t="n">
-        <v>855.5085325195037</v>
+        <v>910.3664916886204</v>
       </c>
       <c r="D22" t="n">
-        <v>689.6305397210264</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E22" t="n">
         <v>670.4898273766405</v>
@@ -5916,10 +5916,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L22" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M22" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N22" t="n">
         <v>1823.203308416962</v>
@@ -5955,7 +5955,7 @@
         <v>1274.746821924383</v>
       </c>
       <c r="Y22" t="n">
-        <v>1047.327151238491</v>
+        <v>1274.746821924383</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J23" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K23" t="n">
-        <v>632.402696562455</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L23" t="n">
-        <v>1729.143463952188</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M23" t="n">
-        <v>2910.315367870658</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N23" t="n">
-        <v>4060.560772667655</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O23" t="n">
-        <v>5063.888712181582</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P23" t="n">
-        <v>5083.64522758474</v>
+        <v>4402.545771868657</v>
       </c>
       <c r="Q23" t="n">
-        <v>5098.481547872238</v>
+        <v>4963.880878114751</v>
       </c>
       <c r="R23" t="n">
         <v>5107.111724666206</v>
@@ -6047,49 +6047,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C24" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D24" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E24" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F24" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G24" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H24" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I24" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J24" t="n">
-        <v>111.6181084023166</v>
+        <v>313.1883495026064</v>
       </c>
       <c r="K24" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L24" t="n">
-        <v>139.4489541568687</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M24" t="n">
-        <v>684.4882938331621</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N24" t="n">
-        <v>703.6067262420404</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O24" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P24" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q24" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R24" t="n">
         <v>1762.882278270333</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.5753929162413</v>
+        <v>1039.344409528127</v>
       </c>
       <c r="C25" t="n">
-        <v>780.0136813994662</v>
+        <v>866.7826980113522</v>
       </c>
       <c r="D25" t="n">
-        <v>614.1356886009889</v>
+        <v>700.9047052128749</v>
       </c>
       <c r="E25" t="n">
-        <v>444.3776848517263</v>
+        <v>531.1467014636121</v>
       </c>
       <c r="F25" t="n">
-        <v>267.6706308134825</v>
+        <v>354.4396474253683</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="H25" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I25" t="n">
         <v>102.1422344933241</v>
@@ -6153,10 +6153,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L25" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M25" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N25" t="n">
         <v>1823.203308416962</v>
@@ -6171,28 +6171,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R25" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.227703614783</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.616920533116</v>
+        <v>2541.385937145002</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.187349530986</v>
+        <v>2262.956366142872</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.231841401416</v>
+        <v>1976.000858013302</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.205436987708</v>
+        <v>1703.974453599594</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.81368232112</v>
+        <v>1458.582698933006</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.394011635228</v>
+        <v>1231.163028247114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C26" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E26" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F26" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814157</v>
       </c>
       <c r="G26" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H26" t="n">
         <v>102.1422344933241</v>
@@ -6226,31 +6226,31 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J26" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K26" t="n">
-        <v>632.402696562455</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L26" t="n">
-        <v>1729.143463952188</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M26" t="n">
-        <v>2910.315367870658</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N26" t="n">
-        <v>4060.560772667655</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O26" t="n">
-        <v>5063.888712181582</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P26" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q26" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R26" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S26" t="n">
         <v>5026.654138178648</v>
@@ -6259,19 +6259,19 @@
         <v>4807.200536626277</v>
       </c>
       <c r="U26" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V26" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W26" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X26" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y26" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3951.744068857806</v>
+        <v>607.5146224619331</v>
       </c>
       <c r="C27" t="n">
-        <v>3845.287607694449</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D27" t="n">
-        <v>3750.197318841002</v>
+        <v>405.9678724451286</v>
       </c>
       <c r="E27" t="n">
-        <v>3656.076904167955</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F27" t="n">
-        <v>3572.693065784117</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G27" t="n">
-        <v>3487.38297744996</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H27" t="n">
-        <v>3446.371680889198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I27" t="n">
-        <v>3474.966251609643</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J27" t="n">
-        <v>3806.46955292486</v>
+        <v>313.1883495026064</v>
       </c>
       <c r="K27" t="n">
-        <v>4350.021386728865</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L27" t="n">
-        <v>4365.982161723409</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M27" t="n">
-        <v>4384.607633320922</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N27" t="n">
-        <v>4403.7260657298</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O27" t="n">
-        <v>4421.215696294978</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P27" t="n">
-        <v>4435.252666736599</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q27" t="n">
-        <v>4985.374948373245</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R27" t="n">
-        <v>5107.111724666206</v>
+        <v>1762.882278270333</v>
       </c>
       <c r="S27" t="n">
-        <v>5045.049405217908</v>
+        <v>1700.819958822035</v>
       </c>
       <c r="T27" t="n">
-        <v>4915.173069821698</v>
+        <v>1570.943623425825</v>
       </c>
       <c r="U27" t="n">
-        <v>4738.841457124276</v>
+        <v>1394.612010728402</v>
       </c>
       <c r="V27" t="n">
-        <v>4539.723939186275</v>
+        <v>1195.494492790401</v>
       </c>
       <c r="W27" t="n">
-        <v>4354.401184919469</v>
+        <v>1010.171738523595</v>
       </c>
       <c r="X27" t="n">
-        <v>4199.533749158349</v>
+        <v>855.3043027624755</v>
       </c>
       <c r="Y27" t="n">
-        <v>4073.04796993757</v>
+        <v>728.8185235416962</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>855.5085325195037</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C28" t="n">
-        <v>682.9468210027286</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="D28" t="n">
-        <v>517.0688282042513</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E28" t="n">
-        <v>354.4396474253683</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F28" t="n">
-        <v>354.4396474253683</v>
+        <v>407.0137567265108</v>
       </c>
       <c r="G28" t="n">
-        <v>188.91125110521</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H28" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I28" t="n">
         <v>102.1422344933241</v>
@@ -6390,10 +6390,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L28" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M28" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N28" t="n">
         <v>1823.203308416962</v>
@@ -6408,28 +6408,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R28" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S28" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T28" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U28" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V28" t="n">
-        <v>1792.164981004679</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W28" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X28" t="n">
-        <v>1274.746821924383</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y28" t="n">
-        <v>1047.327151238491</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E29" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G29" t="n">
         <v>389.8367995776307</v>
@@ -6466,22 +6466,22 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K29" t="n">
-        <v>571.4218927017964</v>
+        <v>1320.547772480818</v>
       </c>
       <c r="L29" t="n">
-        <v>1668.162660091529</v>
+        <v>1342.228573617691</v>
       </c>
       <c r="M29" t="n">
-        <v>2741.161303117601</v>
+        <v>1366.35264232561</v>
       </c>
       <c r="N29" t="n">
-        <v>3891.406707914599</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O29" t="n">
-        <v>4894.734647428526</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P29" t="n">
-        <v>4914.491162831683</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q29" t="n">
         <v>4929.327483119182</v>
@@ -6499,16 +6499,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W29" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y29" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="30">
@@ -6521,19 +6521,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C30" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D30" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E30" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F30" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G30" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H30" t="n">
         <v>102.1422344933241</v>
@@ -6542,28 +6542,28 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J30" t="n">
-        <v>430.3611275969465</v>
+        <v>313.1883495026064</v>
       </c>
       <c r="K30" t="n">
-        <v>1122.964718427331</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L30" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M30" t="n">
-        <v>1157.550965019388</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N30" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P30" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q30" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R30" t="n">
         <v>1762.882278270333</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1082.928203205395</v>
+        <v>1032.24466612979</v>
       </c>
       <c r="C31" t="n">
-        <v>910.3664916886204</v>
+        <v>859.6829546130149</v>
       </c>
       <c r="D31" t="n">
-        <v>744.4884988901431</v>
+        <v>693.8049618145376</v>
       </c>
       <c r="E31" t="n">
-        <v>574.7304951408803</v>
+        <v>524.0469580652748</v>
       </c>
       <c r="F31" t="n">
-        <v>493.7827733383967</v>
+        <v>347.339904027031</v>
       </c>
       <c r="G31" t="n">
-        <v>328.2543770182384</v>
+        <v>181.8115077068727</v>
       </c>
       <c r="H31" t="n">
-        <v>188.91125110521</v>
+        <v>181.8115077068727</v>
       </c>
       <c r="I31" t="n">
         <v>102.1422344933241</v>
@@ -6627,10 +6627,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L31" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M31" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N31" t="n">
         <v>1823.203308416962</v>
@@ -6645,28 +6645,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R31" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S31" t="n">
-        <v>2603.160843218045</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T31" t="n">
-        <v>2357.550060136378</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U31" t="n">
-        <v>2079.120489134248</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V31" t="n">
-        <v>1792.164981004679</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W31" t="n">
-        <v>1520.13857659097</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X31" t="n">
-        <v>1274.746821924383</v>
+        <v>1451.482955534669</v>
       </c>
       <c r="Y31" t="n">
-        <v>1274.746821924383</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C32" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G32" t="n">
         <v>389.8367995776304</v>
@@ -6700,28 +6700,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J32" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K32" t="n">
-        <v>632.402696562455</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L32" t="n">
-        <v>1729.143463952188</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M32" t="n">
-        <v>2910.315367870658</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N32" t="n">
-        <v>4060.560772667655</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O32" t="n">
-        <v>5063.888712181582</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P32" t="n">
-        <v>5083.64522758474</v>
+        <v>4402.545771868657</v>
       </c>
       <c r="Q32" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R32" t="n">
         <v>5107.111724666206</v>
@@ -6736,16 +6736,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V32" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W32" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X32" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y32" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3951.744068857806</v>
+        <v>607.5146224619331</v>
       </c>
       <c r="C33" t="n">
-        <v>3845.287607694449</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D33" t="n">
-        <v>3750.197318841002</v>
+        <v>405.9678724451286</v>
       </c>
       <c r="E33" t="n">
-        <v>3656.076904167955</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F33" t="n">
-        <v>3572.693065784117</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G33" t="n">
-        <v>3487.38297744996</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H33" t="n">
-        <v>3446.371680889198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I33" t="n">
-        <v>3474.966251609643</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J33" t="n">
-        <v>3806.46955292486</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K33" t="n">
-        <v>4350.021386728865</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L33" t="n">
-        <v>4365.982161723409</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M33" t="n">
-        <v>4384.607633320922</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N33" t="n">
-        <v>4403.7260657298</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O33" t="n">
-        <v>4421.215696294978</v>
+        <v>545.3044868551062</v>
       </c>
       <c r="P33" t="n">
-        <v>4435.252666736599</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q33" t="n">
-        <v>4985.374948373245</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R33" t="n">
-        <v>5107.111724666206</v>
+        <v>1762.882278270333</v>
       </c>
       <c r="S33" t="n">
-        <v>5045.049405217908</v>
+        <v>1700.819958822035</v>
       </c>
       <c r="T33" t="n">
-        <v>4915.173069821698</v>
+        <v>1570.943623425825</v>
       </c>
       <c r="U33" t="n">
-        <v>4738.841457124276</v>
+        <v>1394.612010728402</v>
       </c>
       <c r="V33" t="n">
-        <v>4539.723939186275</v>
+        <v>1195.494492790401</v>
       </c>
       <c r="W33" t="n">
-        <v>4354.401184919469</v>
+        <v>1010.171738523595</v>
       </c>
       <c r="X33" t="n">
-        <v>4199.533749158349</v>
+        <v>855.3043027624755</v>
       </c>
       <c r="Y33" t="n">
-        <v>4073.04796993757</v>
+        <v>728.8185235416962</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.5753929162413</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C34" t="n">
-        <v>780.0136813994662</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D34" t="n">
-        <v>614.1356886009889</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E34" t="n">
-        <v>444.3776848517263</v>
+        <v>365.9013928154969</v>
       </c>
       <c r="F34" t="n">
-        <v>267.6706308134825</v>
+        <v>189.1943387772531</v>
       </c>
       <c r="G34" t="n">
-        <v>102.1422344933241</v>
+        <v>189.1943387772531</v>
       </c>
       <c r="H34" t="n">
         <v>102.1422344933241</v>
@@ -6864,10 +6864,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L34" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M34" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N34" t="n">
         <v>1823.203308416962</v>
@@ -6885,25 +6885,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.227703614783</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.616920533116</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.187349530986</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.231841401416</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.205436987708</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.81368232112</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.394011635228</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E35" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G35" t="n">
         <v>389.8367995776304</v>
@@ -6946,43 +6946,43 @@
         <v>1427.452985796848</v>
       </c>
       <c r="M35" t="n">
-        <v>2492.083625762056</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N35" t="n">
-        <v>2516.598047122607</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O35" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P35" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q35" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R35" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S35" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T35" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U35" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V35" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W35" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X35" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y35" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K36" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L36" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M36" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N36" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O36" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551062</v>
       </c>
       <c r="P36" t="n">
         <v>1091.023220340725</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1178.687535441155</v>
+        <v>855.5085325195037</v>
       </c>
       <c r="C37" t="n">
-        <v>1006.12582392438</v>
+        <v>682.9468210027286</v>
       </c>
       <c r="D37" t="n">
-        <v>840.2478311259031</v>
+        <v>524.1976511746311</v>
       </c>
       <c r="E37" t="n">
-        <v>670.4898273766404</v>
+        <v>354.4396474253683</v>
       </c>
       <c r="F37" t="n">
-        <v>493.7827733383966</v>
+        <v>354.4396474253683</v>
       </c>
       <c r="G37" t="n">
-        <v>328.2543770182383</v>
+        <v>188.91125110521</v>
       </c>
       <c r="H37" t="n">
-        <v>188.9112511052099</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I37" t="n">
         <v>102.1422344933241</v>
@@ -7101,10 +7101,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L37" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M37" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N37" t="n">
         <v>1823.203308416962</v>
@@ -7131,16 +7131,16 @@
         <v>2079.120489134248</v>
       </c>
       <c r="V37" t="n">
-        <v>1923.525365207343</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W37" t="n">
-        <v>1651.498960793635</v>
+        <v>1520.13857659097</v>
       </c>
       <c r="X37" t="n">
-        <v>1406.107206127047</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y37" t="n">
-        <v>1178.687535441155</v>
+        <v>1047.327151238491</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E38" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G38" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H38" t="n">
         <v>102.1422344933241</v>
@@ -7183,19 +7183,19 @@
         <v>2502.512952049707</v>
       </c>
       <c r="M38" t="n">
-        <v>2526.637020757626</v>
+        <v>2661.237690515114</v>
       </c>
       <c r="N38" t="n">
-        <v>3344.907921956004</v>
+        <v>2685.752111875664</v>
       </c>
       <c r="O38" t="n">
-        <v>4348.235861469931</v>
+        <v>3689.080051389591</v>
       </c>
       <c r="P38" t="n">
-        <v>4367.992376873088</v>
+        <v>4537.146441626144</v>
       </c>
       <c r="Q38" t="n">
-        <v>4929.327483119182</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R38" t="n">
         <v>5107.111724666206</v>
@@ -7210,16 +7210,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V38" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W38" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X38" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y38" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="39">
@@ -7232,19 +7232,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C39" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D39" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E39" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F39" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H39" t="n">
         <v>102.1422344933241</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>855.5085325195037</v>
+        <v>926.3901225091115</v>
       </c>
       <c r="C40" t="n">
-        <v>682.9468210027286</v>
+        <v>753.8284109923364</v>
       </c>
       <c r="D40" t="n">
-        <v>682.9468210027286</v>
+        <v>587.9504181938592</v>
       </c>
       <c r="E40" t="n">
-        <v>513.1888172534659</v>
+        <v>418.1924144445964</v>
       </c>
       <c r="F40" t="n">
-        <v>493.7827733383967</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="G40" t="n">
-        <v>328.2543770182384</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H40" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I40" t="n">
         <v>102.1422344933241</v>
@@ -7338,10 +7338,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L40" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M40" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N40" t="n">
         <v>1823.203308416962</v>
@@ -7356,28 +7356,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R40" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S40" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T40" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U40" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V40" t="n">
-        <v>1792.164981004679</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W40" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X40" t="n">
-        <v>1274.746821924383</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y40" t="n">
-        <v>1047.327151238491</v>
+        <v>1118.208741228099</v>
       </c>
     </row>
     <row r="41">
@@ -7414,25 +7414,25 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K41" t="n">
-        <v>1289.230920706714</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L41" t="n">
-        <v>1310.911721843587</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M41" t="n">
-        <v>2492.083625762057</v>
+        <v>2661.237690515114</v>
       </c>
       <c r="N41" t="n">
-        <v>2516.598047122608</v>
+        <v>2685.752111875664</v>
       </c>
       <c r="O41" t="n">
-        <v>3519.925986636534</v>
+        <v>3689.080051389591</v>
       </c>
       <c r="P41" t="n">
-        <v>4367.992376873088</v>
+        <v>4537.146441626144</v>
       </c>
       <c r="Q41" t="n">
-        <v>4929.327483119182</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R41" t="n">
         <v>5107.111724666206</v>
@@ -7469,19 +7469,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C42" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D42" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E42" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F42" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G42" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H42" t="n">
         <v>102.1422344933241</v>
@@ -7490,25 +7490,25 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J42" t="n">
-        <v>137.6817815627741</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K42" t="n">
-        <v>149.5518523227814</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L42" t="n">
-        <v>165.5126273173263</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M42" t="n">
-        <v>1382.862933007338</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N42" t="n">
-        <v>1600.235557966002</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O42" t="n">
-        <v>1617.725188531179</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P42" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q42" t="n">
         <v>1641.145501977371</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.5753929162413</v>
+        <v>1032.24466612979</v>
       </c>
       <c r="C43" t="n">
-        <v>780.0136813994662</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D43" t="n">
-        <v>614.1356886009889</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E43" t="n">
-        <v>444.3776848517263</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F43" t="n">
-        <v>267.6706308134825</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H43" t="n">
         <v>102.1422344933241</v>
@@ -7575,10 +7575,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L43" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M43" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N43" t="n">
         <v>1823.203308416962</v>
@@ -7596,25 +7596,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.227703614783</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.616920533116</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.187349530986</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.231841401416</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.205436987708</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.81368232112</v>
+        <v>1451.482955534669</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.394011635228</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="44">
@@ -7657,7 +7657,7 @@
         <v>1427.452985796848</v>
       </c>
       <c r="M44" t="n">
-        <v>2492.083625762057</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N44" t="n">
         <v>2516.598047122608</v>
@@ -7706,49 +7706,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C45" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D45" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E45" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F45" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G45" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H45" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I45" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533116</v>
       </c>
       <c r="J45" t="n">
-        <v>462.2401065289864</v>
+        <v>111.6181084023166</v>
       </c>
       <c r="K45" t="n">
-        <v>1005.791940332991</v>
+        <v>123.4881791623238</v>
       </c>
       <c r="L45" t="n">
-        <v>1021.752715327536</v>
+        <v>859.9412655747532</v>
       </c>
       <c r="M45" t="n">
-        <v>1040.378186925048</v>
+        <v>878.5667371722657</v>
       </c>
       <c r="N45" t="n">
-        <v>1059.496619333927</v>
+        <v>897.6851695811439</v>
       </c>
       <c r="O45" t="n">
-        <v>1076.986249899104</v>
+        <v>915.1748001463208</v>
       </c>
       <c r="P45" t="n">
-        <v>1091.023220340725</v>
+        <v>1748.934937067141</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.145501977371</v>
+        <v>1758.318280071711</v>
       </c>
       <c r="R45" t="n">
         <v>1762.882278270333</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.5753929162413</v>
+        <v>1032.24466612979</v>
       </c>
       <c r="C46" t="n">
-        <v>780.0136813994662</v>
+        <v>859.6829546130149</v>
       </c>
       <c r="D46" t="n">
-        <v>614.1356886009889</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E46" t="n">
-        <v>444.3776848517263</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F46" t="n">
-        <v>267.6706308134825</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1422344933241</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I46" t="n">
         <v>102.1422344933241</v>
@@ -7812,10 +7812,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L46" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M46" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N46" t="n">
         <v>1823.203308416962</v>
@@ -7830,28 +7830,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R46" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S46" t="n">
-        <v>2603.160843218045</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T46" t="n">
-        <v>2357.550060136378</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U46" t="n">
-        <v>2079.120489134248</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V46" t="n">
-        <v>1792.164981004679</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W46" t="n">
-        <v>1520.13857659097</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.81368232112</v>
+        <v>1451.482955534669</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.394011635228</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8376,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888815</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>578.0380920593705</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>36.88577932425383</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>727.7700115332167</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>501.2479710238147</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>177.2793615553862</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>537.0522859030275</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>110.4248494738179</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9181,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>827.2050854201516</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>164.7997526080591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>96.53139390617216</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>135.9602724823108</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>513.9999592929653</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>36.88577932425383</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>501.2479710238147</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>135.9602724823108</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>177.2793615553861</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>531.7311798775564</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>501.2479710238147</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>955.1780520956931</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>177.2793615553861</v>
       </c>
       <c r="K27" t="n">
-        <v>537.052285903028</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>756.6928078575972</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1059.469266988033</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10190,7 +10190,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>295.6357030648206</v>
+        <v>177.2793615553861</v>
       </c>
       <c r="K30" t="n">
         <v>687.6096162327044</v>
@@ -10214,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>501.2479710238147</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>517.116556528309</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>537.052285903028</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>537.0522859030275</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.016738643727</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>537.0522859030276</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>537.0522859030275</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>135.9602724823108</v>
       </c>
       <c r="N38" t="n">
-        <v>801.7742220584114</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>725.0596242473914</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>135.9602724823108</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>200.2567601512985</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>1051.016738643728</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>537.0522859030276</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>727.7700115332167</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>130.0467803606382</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>7.028745964354016</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>77.48177684938798</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>234.0458864466683</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>25.89727492342317</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>70.17277408971154</v>
       </c>
       <c r="U19" t="n">
-        <v>275.645275292109</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>94.80173891340262</v>
       </c>
       <c r="E22" t="n">
-        <v>149.1111184908281</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I25" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>77.6915291158666</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>181.9975182385371</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>51.42201089927265</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>7.057534740675976</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>94.80173891340262</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>7.028745964353931</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H34" t="n">
-        <v>137.9496946538981</v>
+        <v>51.76811141280844</v>
       </c>
       <c r="I34" t="n">
         <v>85.90132644576698</v>
@@ -25125,7 +25125,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S34" t="n">
-        <v>77.6915291158666</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>7.057534740676033</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.0467803606379</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7280000219428</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>51.76811141280848</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>59.07711417248498</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>85.90132644576698</v>
@@ -25836,7 +25836,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S43" t="n">
-        <v>77.6915291158666</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>144.9784406182521</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>96.09619179277027</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645039.4005869194</v>
+        <v>645039.4005869195</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645039.4005869194</v>
+        <v>645039.4005869195</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645039.4005869195</v>
+        <v>645039.4005869194</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645039.4005869195</v>
+        <v>645039.4005869194</v>
       </c>
     </row>
     <row r="14">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="C2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="E2" t="n">
-        <v>396351.4400857426</v>
+        <v>396351.4400857424</v>
       </c>
       <c r="F2" t="n">
-        <v>396351.4400857426</v>
+        <v>396351.4400857425</v>
       </c>
       <c r="G2" t="n">
         <v>396351.4400857426</v>
       </c>
       <c r="H2" t="n">
-        <v>396351.4400857424</v>
+        <v>396351.4400857425</v>
       </c>
       <c r="I2" t="n">
-        <v>396351.4400857424</v>
+        <v>396351.4400857426</v>
       </c>
       <c r="J2" t="n">
         <v>396351.4400857425</v>
@@ -26343,7 +26343,7 @@
         <v>396351.4400857424</v>
       </c>
       <c r="L2" t="n">
-        <v>396351.4400857424</v>
+        <v>396351.4400857426</v>
       </c>
       <c r="M2" t="n">
         <v>396351.4400857424</v>
@@ -26352,10 +26352,10 @@
         <v>396351.4400857424</v>
       </c>
       <c r="O2" t="n">
-        <v>396351.4400857424</v>
+        <v>396351.4400857425</v>
       </c>
       <c r="P2" t="n">
-        <v>396351.4400857426</v>
+        <v>396351.4400857425</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>212441.9426809892</v>
+        <v>212441.9426809893</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26493,7 +26493,7 @@
         <v>78380.64252189653</v>
       </c>
       <c r="J5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="K5" t="n">
         <v>78380.64252189653</v>
@@ -26502,7 +26502,7 @@
         <v>78380.64252189653</v>
       </c>
       <c r="M5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="N5" t="n">
         <v>78380.64252189653</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23863.01150704611</v>
+        <v>-23863.01150704605</v>
       </c>
       <c r="C6" t="n">
         <v>118328.2891526638</v>
       </c>
       <c r="D6" t="n">
-        <v>118328.2891526637</v>
+        <v>118328.2891526638</v>
       </c>
       <c r="E6" t="n">
-        <v>-81673.87904679443</v>
+        <v>-81693.07587956815</v>
       </c>
       <c r="F6" t="n">
-        <v>200592.2912380834</v>
+        <v>200573.0944053099</v>
       </c>
       <c r="G6" t="n">
-        <v>200592.2912380834</v>
+        <v>200573.09440531</v>
       </c>
       <c r="H6" t="n">
-        <v>200592.2912380833</v>
+        <v>200573.0944053099</v>
       </c>
       <c r="I6" t="n">
-        <v>200592.2912380833</v>
+        <v>200573.0944053099</v>
       </c>
       <c r="J6" t="n">
-        <v>89577.82589309315</v>
+        <v>89558.6290603197</v>
       </c>
       <c r="K6" t="n">
-        <v>200592.2912380833</v>
+        <v>200573.0944053097</v>
       </c>
       <c r="L6" t="n">
-        <v>200592.2912380833</v>
+        <v>200573.0944053099</v>
       </c>
       <c r="M6" t="n">
-        <v>-11849.65144290583</v>
+        <v>-11868.84827567959</v>
       </c>
       <c r="N6" t="n">
-        <v>200592.2912380833</v>
+        <v>200573.0944053097</v>
       </c>
       <c r="O6" t="n">
-        <v>200592.2912380833</v>
+        <v>200573.0944053099</v>
       </c>
       <c r="P6" t="n">
-        <v>200592.2912380834</v>
+        <v>200573.0944053099</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
     </row>
     <row r="4">
@@ -26813,7 +26813,7 @@
         <v>1276.777931166552</v>
       </c>
       <c r="J4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="K4" t="n">
         <v>1276.777931166552</v>
@@ -26822,7 +26822,7 @@
         <v>1276.777931166552</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="N4" t="n">
         <v>1276.777931166552</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367908</v>
+        <v>34.52038105367913</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464469</v>
+        <v>852.4820736464474</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E2" t="n">
+        <v>106.4730705056277</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>184.8745390146181</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27441,7 +27441,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>221.2557783344049</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>170.3619727256357</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27627,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>12.16411526248982</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>242.4129192988399</v>
       </c>
       <c r="X7" t="n">
-        <v>63.05313652921024</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>113.7278999628231</v>
+        <v>155.9466570854678</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.81108810866314</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>184.7249062647089</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I11" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J11" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P11" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S11" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K12" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M12" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S12" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I13" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J13" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L13" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M13" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I14" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P14" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S14" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K15" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M15" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S15" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I16" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J16" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L16" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M16" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I17" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P17" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S17" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K18" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M18" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S18" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I19" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J19" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L19" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M19" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I20" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J20" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P20" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S20" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K21" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M21" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S21" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I22" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J22" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L22" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M22" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I23" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P23" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S23" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K24" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M24" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S24" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I25" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J25" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L25" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M25" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I26" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P26" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S26" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K27" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M27" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S27" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I28" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J28" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L28" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M28" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I29" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P29" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S29" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K30" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M30" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S30" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I31" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J31" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L31" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M31" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I32" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P32" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S32" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K33" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M33" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S33" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I34" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J34" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L34" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M34" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I35" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P35" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S35" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K36" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M36" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S36" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I37" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J37" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L37" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M37" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I38" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P38" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S38" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K39" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M39" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S39" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I40" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J40" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L40" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M40" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I41" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P41" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S41" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K42" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M42" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S42" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I43" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J43" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L43" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M43" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1387754012208203</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752727</v>
+        <v>1.421233577752729</v>
       </c>
       <c r="I44" t="n">
-        <v>5.35013865556568</v>
+        <v>5.350138655565688</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936563</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815462</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961538</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833404</v>
+        <v>24.76204177833408</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P44" t="n">
-        <v>19.9560761648055</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937362</v>
+        <v>8.717350296937374</v>
       </c>
       <c r="S44" t="n">
-        <v>3.162344455319446</v>
+        <v>3.162344455319451</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6074893188441413</v>
+        <v>0.6074893188441421</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07425138566263048</v>
+        <v>0.07425138566263059</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943524</v>
+        <v>0.7171120667943534</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805479</v>
+        <v>2.556462181805483</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257558</v>
+        <v>7.015127625257569</v>
       </c>
       <c r="K45" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M45" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017858</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184038</v>
+        <v>14.1787580218404</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040341</v>
+        <v>9.478124247040354</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527189</v>
       </c>
       <c r="S45" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286142</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559534</v>
+        <v>0.2992851904559539</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067797</v>
+        <v>0.004884959583067804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384752</v>
+        <v>0.06224986747384761</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311174</v>
+        <v>0.5534579126311182</v>
       </c>
       <c r="I46" t="n">
-        <v>1.872023287304433</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J46" t="n">
-        <v>4.401065630401019</v>
+        <v>4.401065630401026</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688828</v>
+        <v>7.232302784688838</v>
       </c>
       <c r="L46" t="n">
-        <v>9.25485756970275</v>
+        <v>9.254857569702763</v>
       </c>
       <c r="M46" t="n">
-        <v>9.757949680468659</v>
+        <v>9.757949680468673</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157054</v>
+        <v>9.525927447157068</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485287</v>
+        <v>8.798735813485299</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018791</v>
+        <v>7.528838517018802</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.212577539105541</v>
+        <v>5.212577539105548</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703326</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2659767064791666</v>
+        <v>0.265976706479167</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755323</v>
+        <v>0.003395447316755328</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35096,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888815</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J11" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K11" t="n">
-        <v>595.6908435024134</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815465</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M11" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N11" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P11" t="n">
         <v>856.6327174106605</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257563</v>
+        <v>43.90090694951141</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
         <v>18.81360767425511</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O12" t="n">
-        <v>745.4363050333952</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P12" t="n">
         <v>842.181956485677</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L13" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M13" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N13" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O13" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P13" t="n">
         <v>358.5459031335258</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K14" t="n">
-        <v>518.9007224668577</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M14" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N14" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O14" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J15" t="n">
-        <v>184.2944891806437</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>699.5995866973582</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L15" t="n">
         <v>16.12199494398476</v>
@@ -35737,13 +35737,13 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O15" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248679</v>
       </c>
       <c r="Q15" t="n">
         <v>555.679072360248</v>
@@ -35810,16 +35810,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L16" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M16" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N16" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O16" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P16" t="n">
         <v>358.5459031335258</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936561</v>
+        <v>122.2032381831835</v>
       </c>
       <c r="K17" t="n">
-        <v>860.4308241280712</v>
+        <v>17.65275144304297</v>
       </c>
       <c r="L17" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M17" t="n">
-        <v>24.3677461696152</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N17" t="n">
         <v>1161.864045249493</v>
@@ -35901,13 +35901,13 @@
         <v>1013.462565165582</v>
       </c>
       <c r="P17" t="n">
-        <v>847.161161584957</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465379</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M18" t="n">
-        <v>183.6133602823142</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N18" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O18" t="n">
         <v>17.66629350017865</v>
@@ -35983,7 +35983,7 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R18" t="n">
         <v>122.9664406999614</v>
@@ -36047,16 +36047,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L19" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M19" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N19" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O19" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P19" t="n">
         <v>358.5459031335258</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J20" t="n">
-        <v>108.3097826155378</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K20" t="n">
         <v>860.4308241280712</v>
@@ -36129,22 +36129,22 @@
         <v>1107.818956959326</v>
       </c>
       <c r="M20" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N20" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480538</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q20" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937184</v>
+        <v>144.6776227792479</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J21" t="n">
-        <v>334.8518195103205</v>
+        <v>7.015127625257577</v>
       </c>
       <c r="K21" t="n">
-        <v>699.5995866973583</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
-        <v>532.8135669672204</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017865</v>
+        <v>54.55207282443243</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184039</v>
+        <v>842.181956485677</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L22" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M22" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N22" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O22" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P22" t="n">
         <v>358.5459031335258</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K23" t="n">
-        <v>518.9007224668577</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L23" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M23" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N23" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O23" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480538</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937184</v>
+        <v>144.6776227792479</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257563</v>
+        <v>184.2944891806437</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465379</v>
+        <v>699.5995866973582</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M24" t="n">
-        <v>550.5447875518115</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O24" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P24" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R24" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L25" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M25" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N25" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O25" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P25" t="n">
         <v>358.5459031335258</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K26" t="n">
-        <v>518.9007224668577</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M26" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N26" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O26" t="n">
-        <v>1013.462565165582</v>
+        <v>978.5601459781378</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>28.88340476812618</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J27" t="n">
-        <v>334.8518195103206</v>
+        <v>184.2944891806437</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0422563676816</v>
+        <v>699.5995866973582</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425485</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775621</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O27" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184062</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q27" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R27" t="n">
-        <v>122.9664406999609</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K28" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L28" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M28" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N28" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O28" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P28" t="n">
         <v>358.5459031335258</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J29" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304292</v>
+        <v>774.3455593006402</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M29" t="n">
-        <v>1083.837013157649</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N29" t="n">
         <v>1161.864045249493</v>
@@ -36849,10 +36849,10 @@
         <v>1013.462565165582</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R29" t="n">
         <v>179.5800419666912</v>
@@ -36910,13 +36910,13 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J30" t="n">
-        <v>302.6508306900781</v>
+        <v>184.2944891806437</v>
       </c>
       <c r="K30" t="n">
         <v>699.5995866973582</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
         <v>18.81360767425508</v>
@@ -36934,7 +36934,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R30" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L31" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M31" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N31" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O31" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P31" t="n">
         <v>358.5459031335258</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K32" t="n">
-        <v>518.9007224668577</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L32" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M32" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N32" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O32" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480538</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858513</v>
+        <v>532.1027386368942</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>28.88340476812618</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J33" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0422563676816</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425485</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775621</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O33" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184062</v>
+        <v>551.2310439248679</v>
       </c>
       <c r="Q33" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R33" t="n">
-        <v>122.9664406999609</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L34" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M34" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N34" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O34" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P34" t="n">
         <v>358.5459031335258</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J35" t="n">
         <v>451.4295881567574</v>
@@ -37314,10 +37314,10 @@
         <v>21.89979912815465</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.384484813342</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O35" t="n">
         <v>1013.462565165582</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>28.8834047681263</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J36" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L36" t="n">
         <v>16.12199494398476</v>
@@ -37396,13 +37396,13 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O36" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248679</v>
       </c>
       <c r="Q36" t="n">
         <v>555.679072360248</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K37" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L37" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M37" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N37" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O37" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P37" t="n">
         <v>358.5459031335258</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J38" t="n">
         <v>451.4295881567574</v>
@@ -37551,22 +37551,22 @@
         <v>1107.818956959326</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961566</v>
+        <v>160.328018651926</v>
       </c>
       <c r="N38" t="n">
-        <v>826.5362638367455</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O38" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q38" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R38" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L40" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M40" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N40" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O40" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P40" t="n">
         <v>358.5459031335258</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J41" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K41" t="n">
-        <v>742.7123756904343</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M41" t="n">
-        <v>1193.10293325098</v>
+        <v>160.328018651926</v>
       </c>
       <c r="N41" t="n">
         <v>24.76204177833415</v>
@@ -37803,7 +37803,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R41" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465379</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.646773424255</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N42" t="n">
-        <v>219.5683080390543</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O42" t="n">
         <v>17.66629350017865</v>
@@ -37879,7 +37879,7 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R42" t="n">
         <v>122.9664406999614</v>
@@ -37943,16 +37943,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L43" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M43" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N43" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O43" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P43" t="n">
         <v>358.5459031335258</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.937517176434283</v>
+        <v>4.937517176434291</v>
       </c>
       <c r="J44" t="n">
         <v>451.4295881567574</v>
@@ -38025,10 +38025,10 @@
         <v>21.89979912815465</v>
       </c>
       <c r="M44" t="n">
-        <v>1075.384484813343</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O44" t="n">
         <v>1013.462565165582</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>28.88340476812628</v>
+        <v>2.556462181805486</v>
       </c>
       <c r="J45" t="n">
-        <v>334.8518195103205</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398476</v>
+        <v>743.8920064772014</v>
       </c>
       <c r="M45" t="n">
         <v>18.81360767425508</v>
@@ -38113,13 +38113,13 @@
         <v>17.66629350017865</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184039</v>
+        <v>842.181956485677</v>
       </c>
       <c r="Q45" t="n">
-        <v>555.679072360248</v>
+        <v>9.478124247040341</v>
       </c>
       <c r="R45" t="n">
-        <v>122.9664406999614</v>
+        <v>4.61009919052708</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L46" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M46" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N46" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O46" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P46" t="n">
         <v>358.5459031335258</v>
